--- a/xlsx/柬埔寨_intext.xlsx
+++ b/xlsx/柬埔寨_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1231">
   <si>
     <t>柬埔寨</t>
   </si>
@@ -29,7 +29,7 @@
     <t>高棉文</t>
   </si>
   <si>
-    <t>政策_政策_美國_柬埔寨</t>
+    <t>政策_政策_美国_柬埔寨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>柬埔寨國旗</t>
+    <t>柬埔寨国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>柬埔寨國徽</t>
+    <t>柬埔寨国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>柬埔寨國歌</t>
+    <t>柬埔寨国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%82%8A</t>
   </si>
   <si>
-    <t>金邊</t>
+    <t>金边</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>一級行政區</t>
+    <t>一级行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%9A%E5%9F%BA%E9%87%8C%E7%9C%81</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>高棉語</t>
+    <t>高棉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -221,31 +221,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
   </si>
   <si>
-    <t>曆法</t>
+    <t>历法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
+    <t>公历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%91%E6%B0%B4%E7%AF%80</t>
   </si>
   <si>
-    <t>潑水節</t>
+    <t>泼水节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%81%E6%B0%B4%E8%8A%82</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>獨立日</t>
+    <t>独立日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
@@ -269,55 +269,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9B%BD%E7%8E%8B</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%BE%85%E6%95%A6%C2%B7%E8%A5%BF%E5%93%88%E8%8E%AB%E5%B0%BC</t>
   </si>
   <si>
-    <t>諾羅敦·西哈莫尼</t>
+    <t>诺罗敦·西哈莫尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E9%A6%96%E7%9B%B8</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -401,25 +401,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh-classical.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>zh-classical-柬埔寨國家銀行</t>
+    <t>zh-classical-柬埔寨国家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E7%91%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>柬埔寨瑞爾</t>
+    <t>柬埔寨瑞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_4217</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.kh</t>
@@ -455,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國武裝部隊列表</t>
+    <t>各国武装部队列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國會員國</t>
+    <t>联合国会员国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>山脈</t>
+    <t>山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
@@ -575,9 +575,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%BE%B9</t>
   </si>
   <si>
-    <t>金边</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E9%9F%A6</t>
   </si>
   <si>
@@ -617,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>高棉共和國</t>
+    <t>高棉共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E7%8E%8B%E5%9C%8B%E6%B0%91%E6%97%8F%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>柬埔寨王國民族聯合政府</t>
+    <t>柬埔寨王国民族联合政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>柬埔寨人民共和國</t>
+    <t>柬埔寨人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%9F%AC%E5%9F%94%E5%AF%A8%E8%BF%87%E6%B8%A1%E6%97%B6%E6%9C%9F%E6%9D%83%E5%8A%9B%E6%9C%BA%E6%9E%84</t>
@@ -647,9 +644,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>中南半島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6</t>
   </si>
   <si>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2</t>
   </si>
   <si>
-    <t>漢</t>
+    <t>汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E6%B1%89%E4%B9%A6</t>
@@ -719,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E5%8B%89%E7%9C%81</t>
   </si>
   <si>
-    <t>波羅勉省</t>
+    <t>波罗勉省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87</t>
@@ -737,9 +731,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E8%87%98</t>
   </si>
   <si>
-    <t>真臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%AF%8F</t>
   </si>
   <si>
@@ -779,21 +770,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>高棉帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%92%BE</t>
   </si>
   <si>
-    <t>老撾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
@@ -803,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B9%E7%BE%85</t>
   </si>
   <si>
-    <t>暹羅</t>
+    <t>暹罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%84%E5%85%AC%E6%B2%B3%E4%B8%89%E8%A7%92%E6%B4%B2</t>
@@ -821,43 +803,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%AD%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>保護國</t>
+    <t>保护国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%BE%85%E6%95%A6%C2%B7%E8%A5%BF%E5%93%88%E5%8A%AA%E5%85%8B</t>
   </si>
   <si>
-    <t>諾羅敦·西哈努克</t>
+    <t>诺罗敦·西哈努克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>印度支那半島</t>
+    <t>印度支那半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%AB%BE</t>
   </si>
   <si>
-    <t>龍諾</t>
+    <t>龙诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E4%BA%9E%E5%8A%AA</t>
   </si>
   <si>
-    <t>施亞努</t>
+    <t>施亚努</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -869,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>越戰</t>
+    <t>越战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E6%9F%AC</t>
@@ -887,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E9%81%B7%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>鷹遷行動</t>
+    <t>鹰迁行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%A3%A4</t>
@@ -905,37 +887,34 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%98%87%E4%BA%A4%E6%83%A1</t>
   </si>
   <si>
-    <t>中蘇交惡</t>
+    <t>中苏交恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E4%BA%BA%E6%B0%91%E8%BB%8D</t>
   </si>
   <si>
-    <t>越南人民軍</t>
+    <t>越南人民军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%80%E5%84%A1%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>傀儡政權</t>
+    <t>傀儡政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>柬埔寨共產黨</t>
+    <t>柬埔寨共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E4%BA%BA%E6%B0%91%E5%86%9B</t>
   </si>
   <si>
-    <t>越南人民军</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B</t>
   </si>
   <si>
-    <t>柬埔寨國</t>
+    <t>柬埔寨国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -959,19 +938,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%89%E8%BE%9B%E6%AF%94%E5%85%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>奉辛比克黨</t>
+    <t>奉辛比克党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>柬埔寨王國</t>
+    <t>柬埔寨王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E5%8A%AA%E5%85%8B</t>
@@ -983,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%94%E5%B8%83%E7%89%B9</t>
@@ -995,9 +974,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立宪制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
@@ -1055,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>世界銀行集團</t>
+    <t>世界银行集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E7%BB%8F%E5%95%86%E5%AE%B9%E6%98%93%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -1067,37 +1043,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%8F%E6%98%8E%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>透明國際</t>
+    <t>透明国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA%E6%B1%A1%E6%84%9F%E7%9F%A5%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>貪污感知指數</t>
+    <t>贪污感知指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E9%96%8B%E7%99%BC%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯合國開發計劃署</t>
+    <t>联合国开发计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%BB%83%E9%87%91%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>世界黃金協會</t>
+    <t>世界黄金协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E5%84%B2%E5%82%99</t>
   </si>
   <si>
-    <t>黃金儲備</t>
+    <t>黄金储备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%95%8C%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>無國界記者</t>
+    <t>无国界记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8C%87%E6%95%B0</t>
@@ -1109,31 +1085,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%82%B3%E7%B5%B1%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>美國傳統基金會</t>
+    <t>美国传统基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>經濟自由度指數</t>
+    <t>经济自由度指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E7%AB%B6%E7%88%AD%E5%8A%9B%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>全球競爭力報告</t>
+    <t>全球竞争力报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B6%93%E6%BF%9F%E8%AB%96%E5%A3%87</t>
   </si>
   <si>
-    <t>世界經濟論壇</t>
+    <t>世界经济论坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%92%8C%E5%B9%B3%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球和平指數</t>
+    <t>全球和平指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8C%87%E6%95%B0</t>
@@ -1145,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%BE%E6%BB%84%E6%B1%9F</t>
   </si>
   <si>
-    <t>瀾滄江</t>
+    <t>澜沧江</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
@@ -1157,13 +1133,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E6%B0%8F</t>
   </si>
   <si>
-    <t>攝氏</t>
+    <t>摄氏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E4%B8%AD%E5%A4%AE%E9%AB%98%E5%9C%B0</t>
@@ -1235,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>柬埔寨華人</t>
+    <t>柬埔寨华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%97%8F</t>
@@ -1385,19 +1361,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>高棉數字</t>
+    <t>高棉数字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>阿拉伯數字</t>
+    <t>阿拉伯数字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E5%B7%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>潮州話</t>
+    <t>潮州话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
@@ -1421,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -1439,13 +1415,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%82%8A%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>金邊國際機場</t>
+    <t>金边国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B9%E7%B2%92%EF%BC%8D%E5%90%B4%E5%93%A5%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1457,45 +1433,33 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%82%8A%E5%B8%82</t>
   </si>
   <si>
-    <t>金邊市</t>
+    <t>金边市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%9C%9B%E7%9C%81</t>
   </si>
   <si>
-    <t>馬德望省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%9C%9B</t>
   </si>
   <si>
-    <t>馬德望</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%85%E6%B8%85%E6%8F%9A%E7%9C%81</t>
   </si>
   <si>
-    <t>磅清揚省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%85%E6%B8%85%E6%8F%9A</t>
   </si>
   <si>
-    <t>磅清揚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%85%E9%80%9A%E7%9C%81</t>
   </si>
   <si>
@@ -1505,15 +1469,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A2%E5%B8%83%E7%9C%81</t>
   </si>
   <si>
-    <t>貢布省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A2%E5%B8%83</t>
   </si>
   <si>
-    <t>貢布</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E4%B8%B9%E7%9C%81</t>
   </si>
   <si>
@@ -1535,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E8%8E%AB%E8%AB%BE%E9%9A%86</t>
   </si>
   <si>
-    <t>森莫諾隆</t>
+    <t>森莫诺隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%A8%81%E5%A4%8F%E7%9C%81</t>
@@ -1547,13 +1505,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%A9%E8%96%A9%E7%9C%81</t>
   </si>
   <si>
-    <t>菩薩省</t>
+    <t>菩萨省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%81%94%E9%82%A3%E5%9F%BA%E9%87%8C%E7%9C%81</t>
   </si>
   <si>
-    <t>拉達那基里省</t>
+    <t>拉达那基里省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E4%B8%81%E7%9C%81</t>
@@ -1565,13 +1523,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%A5%A8%E7%9C%81</t>
   </si>
   <si>
-    <t>柴楨省</t>
+    <t>柴桢省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%86%A0%E7%9C%81</t>
   </si>
   <si>
-    <t>茶膠省</t>
+    <t>茶胶省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%A4%9A%E6%A3%89%E8%8A%B7%E7%9C%81</t>
@@ -1583,13 +1541,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A6%AC%E7%9C%81</t>
   </si>
   <si>
-    <t>白馬省</t>
+    <t>白马省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>白馬市</t>
+    <t>白马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E5%B1%B1</t>
@@ -1619,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BE%85%E9%96%80%E6%95%99</t>
   </si>
   <si>
-    <t>婆羅門教</t>
+    <t>婆罗门教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%95%E5%A9%86</t>
   </si>
   <si>
-    <t>濕婆</t>
+    <t>湿婆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B9%98%E4%BD%9B%E6%95%99</t>
@@ -1655,25 +1613,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E7%89%A9%E6%9C%89%E9%9D%88</t>
   </si>
   <si>
-    <t>萬物有靈</t>
+    <t>万物有灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B9%E7%B2%92%E5%B8%82</t>
@@ -1685,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%93%A5%E7%AA%9F</t>
   </si>
   <si>
-    <t>吳哥窟</t>
+    <t>吴哥窟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E5%93%A5%E5%8F%A4%E8%BF%B9</t>
@@ -1703,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E5%AE%B6%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>柬埔寨國家電視台</t>
+    <t>柬埔寨国家电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%85%B0%E8%A5%BF</t>
@@ -1721,13 +1676,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>柬埔寨內戰</t>
+    <t>柬埔寨内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>柬埔寨軍事</t>
+    <t>柬埔寨军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -1757,13 +1712,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>泰國灣</t>
+    <t>泰国湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>Template talk-亞洲</t>
+    <t>Template talk-亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -1781,9 +1736,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -1805,13 +1757,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
@@ -1973,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
+    <t>阿布哈兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
@@ -2039,7 +1991,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
@@ -2075,13 +2027,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
@@ -2105,13 +2057,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -2123,7 +2075,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -2135,7 +2087,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -2159,9 +2111,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
@@ -2171,9 +2120,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
   </si>
   <si>
@@ -2219,13 +2165,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美帝國主義</t>
+    <t>美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -2261,7 +2204,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E9%82%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>單邊主義</t>
+    <t>单边主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E5%89%8A%E5%87%8F%E6%88%98%E7%95%A5%E6%AD%A6%E5%99%A8%E6%9D%A1%E7%BA%A6</t>
@@ -2273,7 +2216,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>反彈道飛彈條約</t>
+    <t>反弹道飞弹条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
@@ -2285,19 +2228,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9B%9B%E5%A4%A7%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲四大經濟體</t>
+    <t>欧洲四大经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -2309,13 +2252,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90%E4%BA%94%E5%9C%8B</t>
   </si>
   <si>
-    <t>北歐五國</t>
+    <t>北欧五国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -2333,7 +2276,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -2345,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
@@ -2363,19 +2306,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -2405,7 +2348,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -2435,13 +2378,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -2465,7 +2408,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2489,7 +2432,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
@@ -2519,13 +2462,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%83%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>較發達國家</t>
+    <t>较发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -2537,31 +2480,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>已開發國家或地區</t>
+    <t>已开发国家或地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%99</t>
@@ -2585,7 +2525,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8C%96%E5%9B%BD%E5%AE%B6</t>
@@ -2597,7 +2537,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%A4%A7%E5%B7%A5%E6%A5%AD%E5%9C%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>八大工業國組織</t>
+    <t>八大工业国组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
@@ -2615,7 +2555,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>西歐聯盟</t>
+    <t>西欧联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
@@ -2687,15 +2627,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
   </si>
   <si>
@@ -2729,13 +2666,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
@@ -2759,7 +2693,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -2783,19 +2717,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -2885,13 +2819,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -2909,7 +2843,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
@@ -2921,7 +2855,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -2939,13 +2873,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -2963,7 +2897,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%93%A6%E5%8D%A2</t>
@@ -2993,7 +2927,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%95%97%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>失敗國家</t>
+    <t>失败国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%86%E5%BC%B1%E5%9B%BD%E5%AE%B6%E6%8C%87%E6%95%B0</t>
@@ -3041,7 +2975,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南方共同市場</t>
+    <t>南方共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -3083,7 +3017,7 @@
     <t>https://zh.wikipedia.org/wiki/20%E5%9C%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>20國集團</t>
+    <t>20国集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
@@ -3101,13 +3035,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
   </si>
   <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
@@ -3119,13 +3050,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E%E8%A1%9D%E7%AA%81%E8%AB%96</t>
   </si>
   <si>
-    <t>文明衝突論</t>
+    <t>文明冲突论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -3149,19 +3080,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%9B%9F%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>東盟憲章</t>
+    <t>东盟宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B4%B0%E5%AE%89%E6%9C%83%E6%97%97</t>
   </si>
   <si>
-    <t>亞細安會旗</t>
+    <t>亚细安会旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%9B%9F%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>東盟之路</t>
+    <t>东盟之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%9B%9F%E9%A6%96%E8%84%91%E4%BC%9A%E8%AE%AE</t>
@@ -3179,7 +3110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%94%E5%8D%81%E5%8A%A0%E4%B8%89</t>
   </si>
   <si>
-    <t>東協十加三</t>
+    <t>东协十加三</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%EF%BC%8D%E4%B8%9C%E7%9B%9F%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93%E5%8C%BA</t>
@@ -3197,7 +3128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B5%B7%E5%90%84%E6%96%B9%E8%A1%8C%E7%82%BA%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>南海各方行為宣言</t>
+    <t>南海各方行为宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%8F%8B%E5%A5%BD%E5%90%88%E4%BD%9C%E6%9D%A1%E7%BA%A6</t>
@@ -3239,13 +3170,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
@@ -3263,9 +3191,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
@@ -3305,9 +3230,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
@@ -3443,13 +3365,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -3467,9 +3386,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
   </si>
   <si>
@@ -3485,7 +3401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -3509,13 +3425,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
   </si>
   <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
@@ -3551,7 +3464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -3593,13 +3506,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -3611,9 +3521,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -3623,9 +3530,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
   </si>
   <si>
@@ -3635,19 +3539,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
   </si>
   <si>
-    <t>希腊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
@@ -3659,13 +3560,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
   </si>
   <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -3677,13 +3575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
@@ -3695,7 +3593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -3737,7 +3635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -3755,19 +3653,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3785,7 +3683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3797,13 +3695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -4589,7 +4487,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -6880,7 +6778,7 @@
         <v>178</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -6909,7 +6807,7 @@
         <v>180</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -6938,7 +6836,7 @@
         <v>182</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -6993,7 +6891,7 @@
         <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -7019,10 +6917,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -7048,10 +6946,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -7077,10 +6975,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -7106,13 +7004,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
       </c>
-      <c r="F102" t="s">
-        <v>194</v>
-      </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -7135,13 +7033,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
       </c>
-      <c r="F103" t="s">
-        <v>196</v>
-      </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -7164,13 +7062,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
       </c>
-      <c r="F104" t="s">
-        <v>198</v>
-      </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -7193,13 +7091,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
       </c>
-      <c r="F105" t="s">
-        <v>200</v>
-      </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -7222,10 +7120,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -7251,13 +7149,13 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
       </c>
-      <c r="F107" t="s">
-        <v>204</v>
-      </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -7280,13 +7178,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
       </c>
-      <c r="F108" t="s">
-        <v>206</v>
-      </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -7309,10 +7207,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7338,10 +7236,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -7396,10 +7294,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7425,10 +7323,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -7454,10 +7352,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7483,10 +7381,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7541,10 +7439,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7570,10 +7468,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7599,10 +7497,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7628,10 +7526,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7657,10 +7555,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7686,10 +7584,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7744,10 +7642,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -7773,10 +7671,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -7802,10 +7700,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -7831,10 +7729,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -7860,10 +7758,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7889,10 +7787,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7918,10 +7816,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7947,10 +7845,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -7976,10 +7874,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8005,10 +7903,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -8034,10 +7932,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8063,10 +7961,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8092,10 +7990,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8121,10 +8019,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="G137" t="n">
         <v>27</v>
@@ -8150,10 +8048,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -8208,10 +8106,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -8237,10 +8135,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G141" t="n">
         <v>4</v>
@@ -8266,10 +8164,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -8295,10 +8193,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -8324,10 +8222,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -8353,10 +8251,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8382,10 +8280,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8411,10 +8309,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F147" t="s">
         <v>193</v>
-      </c>
-      <c r="F147" t="s">
-        <v>194</v>
       </c>
       <c r="G147" t="n">
         <v>142</v>
@@ -8440,10 +8338,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8469,10 +8367,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8498,10 +8396,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F150" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -8527,10 +8425,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>198</v>
+      </c>
+      <c r="F151" t="s">
         <v>199</v>
-      </c>
-      <c r="F151" t="s">
-        <v>200</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8556,10 +8454,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F152" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -8585,10 +8483,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F153" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -8614,10 +8512,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F154" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8643,10 +8541,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F155" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -8672,10 +8570,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F156" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G156" t="n">
         <v>8</v>
@@ -8701,10 +8599,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F157" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8730,10 +8628,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>202</v>
+      </c>
+      <c r="F158" t="s">
         <v>203</v>
-      </c>
-      <c r="F158" t="s">
-        <v>204</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -8759,10 +8657,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8788,10 +8686,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8817,10 +8715,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8846,10 +8744,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8875,10 +8773,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8904,10 +8802,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>204</v>
+      </c>
+      <c r="F164" t="s">
         <v>205</v>
-      </c>
-      <c r="F164" t="s">
-        <v>206</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8933,10 +8831,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8962,10 +8860,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F166" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="G166" t="n">
         <v>20</v>
@@ -8991,10 +8889,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F167" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -9020,10 +8918,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -9049,10 +8947,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -9078,10 +8976,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F170" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -9107,10 +9005,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9136,10 +9034,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F172" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G172" t="n">
         <v>6</v>
@@ -9165,10 +9063,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -9194,10 +9092,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F174" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G174" t="n">
         <v>6</v>
@@ -9223,10 +9121,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G175" t="n">
         <v>9</v>
@@ -9252,10 +9150,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -9281,10 +9179,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F177" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9310,10 +9208,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F178" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9339,10 +9237,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F179" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9368,10 +9266,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F180" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -9397,10 +9295,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F181" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G181" t="n">
         <v>8</v>
@@ -9426,10 +9324,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F182" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G182" t="n">
         <v>4</v>
@@ -9455,10 +9353,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F183" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9484,10 +9382,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F184" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9513,10 +9411,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F185" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -9571,10 +9469,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F187" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9600,10 +9498,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F188" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9629,10 +9527,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F189" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9658,10 +9556,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F190" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9687,10 +9585,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F191" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9716,10 +9614,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F192" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9745,10 +9643,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F193" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9774,10 +9672,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F194" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9803,10 +9701,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9832,10 +9730,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9861,10 +9759,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9890,10 +9788,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F198" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9919,10 +9817,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F199" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9948,10 +9846,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F200" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9977,10 +9875,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F201" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -10006,10 +9904,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F202" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10035,10 +9933,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F203" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10064,10 +9962,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10122,10 +10020,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F206" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10151,10 +10049,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F207" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10180,10 +10078,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F208" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10209,10 +10107,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F209" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10238,10 +10136,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F210" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -10267,10 +10165,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F211" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -10296,10 +10194,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F212" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10325,10 +10223,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F213" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10354,10 +10252,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F214" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10383,10 +10281,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F215" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -10412,10 +10310,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F216" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10441,10 +10339,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F217" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -10470,10 +10368,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F218" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -10499,10 +10397,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F219" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G219" t="n">
         <v>6</v>
@@ -10528,10 +10426,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F220" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -10557,10 +10455,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F221" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G221" t="n">
         <v>7</v>
@@ -10586,10 +10484,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F222" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -10615,10 +10513,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F223" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10644,10 +10542,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F224" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10673,10 +10571,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F225" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -10702,10 +10600,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F226" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10731,10 +10629,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F227" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G227" t="n">
         <v>43</v>
@@ -10763,7 +10661,7 @@
         <v>185</v>
       </c>
       <c r="F228" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="G228" t="n">
         <v>9</v>
@@ -10789,10 +10687,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F229" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10818,10 +10716,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F230" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -10847,10 +10745,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F231" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G231" t="n">
         <v>4</v>
@@ -10876,10 +10774,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F232" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10905,10 +10803,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F233" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10934,10 +10832,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F234" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10963,10 +10861,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F235" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G235" t="n">
         <v>6</v>
@@ -10992,10 +10890,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F236" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -11021,10 +10919,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F237" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G237" t="n">
         <v>4</v>
@@ -11050,10 +10948,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F238" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -11079,10 +10977,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F239" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -11108,10 +11006,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F240" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -11137,10 +11035,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F241" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G241" t="n">
         <v>4</v>
@@ -11166,10 +11064,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F242" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -11195,10 +11093,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F243" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -11224,10 +11122,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F244" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11253,10 +11151,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F245" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -11282,10 +11180,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F246" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11311,10 +11209,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F247" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -11340,10 +11238,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F248" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -11369,10 +11267,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F249" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11398,10 +11296,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11427,10 +11325,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11456,10 +11354,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G252" t="n">
         <v>4</v>
@@ -11485,10 +11383,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11514,10 +11412,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11543,10 +11441,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -11572,10 +11470,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11601,10 +11499,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11630,10 +11528,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F258" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11659,10 +11557,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F259" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11688,10 +11586,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F260" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -11717,10 +11615,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F261" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11746,10 +11644,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F262" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11775,10 +11673,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F263" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11804,10 +11702,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F264" t="s">
-        <v>488</v>
+        <v>416</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -11833,10 +11731,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11862,10 +11760,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -11891,10 +11789,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11920,10 +11818,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11949,10 +11847,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11978,10 +11876,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -12007,10 +11905,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F271" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -12036,10 +11934,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F272" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -12065,10 +11963,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F273" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -12094,10 +11992,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F274" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12123,10 +12021,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F275" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -12152,10 +12050,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F276" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12181,10 +12079,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F277" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12210,10 +12108,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F278" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12239,10 +12137,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F279" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12268,10 +12166,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F280" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -12297,10 +12195,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F281" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12326,10 +12224,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F282" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12355,10 +12253,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F283" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12384,10 +12282,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F284" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12413,10 +12311,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F285" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12442,10 +12340,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F286" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12471,10 +12369,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F287" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12500,10 +12398,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F288" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12529,10 +12427,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F289" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G289" t="n">
         <v>12</v>
@@ -12558,10 +12456,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F290" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12587,10 +12485,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F291" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12616,10 +12514,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F292" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -12645,10 +12543,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F293" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12674,10 +12572,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F294" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12703,10 +12601,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F295" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12732,10 +12630,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F296" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12761,10 +12659,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F297" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12790,10 +12688,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F298" t="s">
-        <v>550</v>
+        <v>262</v>
       </c>
       <c r="G298" t="n">
         <v>6</v>
@@ -12819,10 +12717,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F299" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G299" t="n">
         <v>5</v>
@@ -12848,10 +12746,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="F300" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12877,10 +12775,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F301" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -12906,10 +12804,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F302" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12935,10 +12833,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F303" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12964,10 +12862,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F304" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12993,10 +12891,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F305" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -13022,10 +12920,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="F306" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="G306" t="n">
         <v>8</v>
@@ -13051,10 +12949,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>196</v>
+      </c>
+      <c r="F307" t="s">
         <v>197</v>
-      </c>
-      <c r="F307" t="s">
-        <v>198</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -13080,10 +12978,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F308" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13109,10 +13007,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="F309" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13138,10 +13036,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F310" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13167,10 +13065,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F311" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13196,10 +13094,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F312" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13225,10 +13123,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="F313" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G313" t="n">
         <v>3</v>
@@ -13254,10 +13152,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F314" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13283,10 +13181,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F315" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -13312,10 +13210,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F316" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G316" t="n">
         <v>13</v>
@@ -13341,10 +13239,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F317" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G317" t="n">
         <v>5</v>
@@ -13370,10 +13268,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F318" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -13399,10 +13297,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F319" t="s">
-        <v>588</v>
+        <v>315</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -13428,10 +13326,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="F320" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="G320" t="n">
         <v>3</v>
@@ -13457,10 +13355,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F321" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="G321" t="n">
         <v>3</v>
@@ -13486,10 +13384,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="F322" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -13515,10 +13413,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F323" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13544,10 +13442,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="F324" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13573,10 +13471,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F325" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G325" t="n">
         <v>4</v>
@@ -13602,10 +13500,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F326" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -13631,10 +13529,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F327" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="G327" t="n">
         <v>4</v>
@@ -13660,10 +13558,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F328" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13689,10 +13587,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F329" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13718,10 +13616,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="F330" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="G330" t="n">
         <v>4</v>
@@ -13747,10 +13645,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="F331" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13776,10 +13674,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F332" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="G332" t="n">
         <v>9</v>
@@ -13805,10 +13703,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F333" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -13834,10 +13732,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F334" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
@@ -13863,10 +13761,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F335" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -13892,10 +13790,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="F336" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="G336" t="n">
         <v>3</v>
@@ -13921,10 +13819,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="F337" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="G337" t="n">
         <v>3</v>
@@ -13950,10 +13848,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="F338" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="G338" t="n">
         <v>10</v>
@@ -13979,10 +13877,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F339" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -14008,10 +13906,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F340" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -14037,10 +13935,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="F341" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -14066,10 +13964,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="F342" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -14095,10 +13993,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="F343" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -14124,10 +14022,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="F344" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -14153,10 +14051,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="F345" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="G345" t="n">
         <v>8</v>
@@ -14182,10 +14080,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F346" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="G346" t="n">
         <v>3</v>
@@ -14211,10 +14109,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F347" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -14240,10 +14138,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="F348" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -14269,10 +14167,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="F349" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -14298,10 +14196,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="F350" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14327,10 +14225,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="F351" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14356,10 +14254,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="F352" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14385,10 +14283,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="F353" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -14414,10 +14312,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="F354" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -14443,10 +14341,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="F355" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -14472,10 +14370,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="F356" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -14501,10 +14399,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F357" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14530,10 +14428,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="F358" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -14559,10 +14457,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="F359" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -14588,10 +14486,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="F360" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -14617,10 +14515,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="F361" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14646,10 +14544,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="F362" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="G362" t="n">
         <v>3</v>
@@ -14675,10 +14573,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="F363" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -14704,10 +14602,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F364" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -14733,10 +14631,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F365" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -14762,10 +14660,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F366" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -14791,10 +14689,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F367" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="G367" t="n">
         <v>3</v>
@@ -14820,10 +14718,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="F368" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G368" t="n">
         <v>4</v>
@@ -14849,10 +14747,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F369" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14878,10 +14776,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F370" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14907,10 +14805,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="F371" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14936,10 +14834,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F372" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14965,10 +14863,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F373" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14994,10 +14892,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="F374" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -15023,10 +14921,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="F375" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15052,10 +14950,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="F376" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15081,10 +14979,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="F377" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -15110,10 +15008,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F378" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="G378" t="n">
         <v>3</v>
@@ -15139,10 +15037,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="F379" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15168,10 +15066,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F380" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15197,10 +15095,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F381" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -15226,10 +15124,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F382" t="s">
-        <v>714</v>
+        <v>569</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -15255,10 +15153,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="F383" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15284,10 +15182,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="F384" t="s">
-        <v>718</v>
+        <v>390</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15313,10 +15211,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="F385" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -15342,10 +15240,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="F386" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15371,10 +15269,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="F387" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15400,10 +15298,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="F388" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -15429,10 +15327,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="F389" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15458,10 +15356,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="F390" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15487,10 +15385,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="F391" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15516,10 +15414,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="F392" t="s">
-        <v>734</v>
+        <v>392</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -15545,10 +15443,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="F393" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15574,10 +15472,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="F394" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="G394" t="n">
         <v>3</v>
@@ -15603,10 +15501,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="F395" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15632,10 +15530,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="F396" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -15661,10 +15559,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="F397" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15690,10 +15588,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="F398" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15719,10 +15617,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="F399" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15748,10 +15646,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="F400" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15777,10 +15675,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="F401" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15806,10 +15704,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="F402" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15835,13 +15733,13 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="F403" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="G403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -15864,10 +15762,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="F404" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15893,10 +15791,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="F405" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15922,10 +15820,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="F406" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15951,10 +15849,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="F407" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -15980,10 +15878,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="F408" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16009,10 +15907,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="F409" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16038,10 +15936,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="F410" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16067,10 +15965,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="F411" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16096,10 +15994,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="F412" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16125,10 +16023,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="F413" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16154,10 +16052,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="F414" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16183,10 +16081,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="F415" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -16212,10 +16110,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="F416" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16241,10 +16139,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="F417" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16270,10 +16168,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="F418" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -16299,10 +16197,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="F419" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16328,10 +16226,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="F420" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -16357,10 +16255,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="F421" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -16386,10 +16284,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="F422" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -16415,10 +16313,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="F423" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16444,10 +16342,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="F424" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16473,10 +16371,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="F425" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -16502,10 +16400,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="F426" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16531,10 +16429,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="F427" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16560,10 +16458,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="F428" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -16589,10 +16487,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="F429" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16618,10 +16516,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="F430" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16647,10 +16545,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="F431" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16676,10 +16574,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="F432" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16705,10 +16603,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="F433" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16734,10 +16632,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="F434" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -16763,10 +16661,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="F435" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -16792,10 +16690,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="F436" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -16821,10 +16719,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="F437" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -16850,10 +16748,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="F438" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16879,10 +16777,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="F439" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16908,10 +16806,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="F440" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16937,10 +16835,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="F441" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16966,10 +16864,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="F442" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16995,10 +16893,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="F443" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17024,10 +16922,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="F444" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17053,10 +16951,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="F445" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17082,10 +16980,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="F446" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="G446" t="n">
         <v>3</v>
@@ -17111,10 +17009,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="F447" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17140,10 +17038,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="F448" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17169,10 +17067,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="F449" t="s">
-        <v>844</v>
+        <v>676</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -17198,10 +17096,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="F450" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17227,10 +17125,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="F451" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17256,10 +17154,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="F452" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17285,10 +17183,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="F453" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17314,10 +17212,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="F454" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17343,10 +17241,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="F455" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17372,10 +17270,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="F456" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="G456" t="n">
         <v>3</v>
@@ -17401,10 +17299,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="F457" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17430,10 +17328,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="F458" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17459,10 +17357,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="F459" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17488,10 +17386,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="F460" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17517,10 +17415,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="F461" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17546,10 +17444,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="F462" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17575,10 +17473,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="F463" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17604,13 +17502,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="F464" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17633,10 +17531,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="F465" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17662,10 +17560,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="F466" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -17691,10 +17589,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="F467" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -17720,10 +17618,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="F468" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17749,10 +17647,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="F469" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17778,10 +17676,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="F470" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -17807,10 +17705,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="F471" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="G471" t="n">
         <v>3</v>
@@ -17836,10 +17734,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="F472" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="G472" t="n">
         <v>3</v>
@@ -17865,10 +17763,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="F473" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17894,10 +17792,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="F474" t="s">
-        <v>892</v>
+        <v>586</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -17923,10 +17821,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="F475" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17952,10 +17850,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="F476" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17981,10 +17879,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="F477" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18010,10 +17908,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="F478" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18039,10 +17937,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="F479" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18068,10 +17966,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="F480" t="s">
-        <v>904</v>
+        <v>590</v>
       </c>
       <c r="G480" t="n">
         <v>3</v>
@@ -18097,10 +17995,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
       <c r="F481" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18126,13 +18024,13 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="F482" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="G482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -18155,10 +18053,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="F483" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="G483" t="n">
         <v>3</v>
@@ -18184,10 +18082,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="F484" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="G484" t="n">
         <v>3</v>
@@ -18213,10 +18111,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="F485" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -18242,10 +18140,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="F486" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -18271,10 +18169,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="F487" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="G487" t="n">
         <v>3</v>
@@ -18300,10 +18198,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="F488" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="G488" t="n">
         <v>10</v>
@@ -18329,10 +18227,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="F489" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18358,10 +18256,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
       <c r="F490" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -18387,10 +18285,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="F491" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="G491" t="n">
         <v>3</v>
@@ -18416,10 +18314,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="F492" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="G492" t="n">
         <v>3</v>
@@ -18445,10 +18343,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="F493" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="G493" t="n">
         <v>3</v>
@@ -18474,10 +18372,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="F494" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18503,10 +18401,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="F495" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -18532,10 +18430,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="F496" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="G496" t="n">
         <v>4</v>
@@ -18561,10 +18459,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="F497" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18590,10 +18488,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="F498" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18619,10 +18517,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="F499" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="G499" t="n">
         <v>3</v>
@@ -18648,10 +18546,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="F500" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="G500" t="n">
         <v>2</v>
@@ -18677,10 +18575,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="F501" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -18706,10 +18604,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="F502" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="G502" t="n">
         <v>3</v>
@@ -18735,10 +18633,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="F503" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="G503" t="n">
         <v>3</v>
@@ -18764,10 +18662,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="F504" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="G504" t="n">
         <v>3</v>
@@ -18793,10 +18691,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="F505" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="G505" t="n">
         <v>3</v>
@@ -18822,10 +18720,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="F506" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18851,10 +18749,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="F507" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18880,10 +18778,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="F508" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="G508" t="n">
         <v>2</v>
@@ -18909,10 +18807,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="F509" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="G509" t="n">
         <v>3</v>
@@ -18938,10 +18836,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="F510" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18967,10 +18865,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="F511" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="G511" t="n">
         <v>2</v>
@@ -18996,10 +18894,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="F512" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19025,10 +18923,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="F513" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -19054,10 +18952,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="F514" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="G514" t="n">
         <v>3</v>
@@ -19083,10 +18981,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="F515" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19112,10 +19010,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="F516" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19141,10 +19039,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="F517" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="G517" t="n">
         <v>2</v>
@@ -19170,10 +19068,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="F518" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19199,10 +19097,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="F519" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19228,10 +19126,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="F520" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19257,10 +19155,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="F521" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19286,10 +19184,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="F522" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19315,10 +19213,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="F523" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="G523" t="n">
         <v>3</v>
@@ -19344,10 +19242,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="F524" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19373,10 +19271,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="F525" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19402,10 +19300,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="F526" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19431,10 +19329,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="F527" t="s">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19460,10 +19358,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="F528" t="s">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19489,10 +19387,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="F529" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19518,10 +19416,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="F530" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19547,10 +19445,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="F531" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19576,10 +19474,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="F532" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19605,10 +19503,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="F533" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19634,10 +19532,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="F534" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19663,10 +19561,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="F535" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="G535" t="n">
         <v>2</v>
@@ -19692,10 +19590,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="F536" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19721,10 +19619,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="F537" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19750,10 +19648,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="F538" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19779,10 +19677,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1021</v>
+        <v>999</v>
       </c>
       <c r="F539" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19808,10 +19706,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="F540" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19837,10 +19735,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1025</v>
+        <v>1003</v>
       </c>
       <c r="F541" t="s">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19866,10 +19764,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="F542" t="s">
-        <v>1028</v>
+        <v>128</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19895,10 +19793,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="F543" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19924,10 +19822,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="F544" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19953,10 +19851,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="F545" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19982,10 +19880,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
       <c r="F546" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20011,10 +19909,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="F547" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20069,10 +19967,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1037</v>
+        <v>1014</v>
       </c>
       <c r="F549" t="s">
-        <v>1038</v>
+        <v>1015</v>
       </c>
       <c r="G549" t="n">
         <v>2</v>
@@ -20098,10 +19996,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="F550" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20127,10 +20025,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="F551" t="s">
-        <v>1042</v>
+        <v>1019</v>
       </c>
       <c r="G551" t="n">
         <v>2</v>
@@ -20156,10 +20054,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1043</v>
+        <v>1020</v>
       </c>
       <c r="F552" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20185,10 +20083,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="F553" t="s">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20214,10 +20112,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
       <c r="F554" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20243,10 +20141,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
       <c r="F555" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20272,10 +20170,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
       <c r="F556" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -20301,10 +20199,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
       <c r="F557" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20330,10 +20228,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1055</v>
+        <v>1032</v>
       </c>
       <c r="F558" t="s">
-        <v>1056</v>
+        <v>1033</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20359,10 +20257,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
       <c r="F559" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20388,10 +20286,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
       <c r="F560" t="s">
-        <v>1060</v>
+        <v>1037</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20417,10 +20315,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="F561" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20446,10 +20344,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
       <c r="F562" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20475,10 +20373,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="F563" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20504,10 +20402,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="F564" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20533,10 +20431,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1069</v>
+        <v>1046</v>
       </c>
       <c r="F565" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20562,10 +20460,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1071</v>
+        <v>1048</v>
       </c>
       <c r="F566" t="s">
-        <v>1072</v>
+        <v>1049</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20591,10 +20489,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1073</v>
+        <v>1050</v>
       </c>
       <c r="F567" t="s">
-        <v>1074</v>
+        <v>826</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20620,10 +20518,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="F568" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20649,10 +20547,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1077</v>
+        <v>1053</v>
       </c>
       <c r="F569" t="s">
-        <v>1078</v>
+        <v>1054</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20678,10 +20576,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1079</v>
+        <v>1055</v>
       </c>
       <c r="F570" t="s">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20707,10 +20605,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1081</v>
+        <v>1057</v>
       </c>
       <c r="F571" t="s">
-        <v>1082</v>
+        <v>592</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20736,10 +20634,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="F572" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20765,10 +20663,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="F573" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="G573" t="n">
         <v>2</v>
@@ -20794,10 +20692,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="F574" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="G574" t="n">
         <v>2</v>
@@ -20823,10 +20721,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="F575" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20852,10 +20750,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
       <c r="F576" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
       <c r="G576" t="n">
         <v>2</v>
@@ -20881,10 +20779,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="F577" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20910,10 +20808,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="F578" t="s">
-        <v>1096</v>
+        <v>934</v>
       </c>
       <c r="G578" t="n">
         <v>5</v>
@@ -20939,10 +20837,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1097</v>
+        <v>1071</v>
       </c>
       <c r="F579" t="s">
-        <v>1098</v>
+        <v>1072</v>
       </c>
       <c r="G579" t="n">
         <v>2</v>
@@ -20968,10 +20866,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1099</v>
+        <v>1073</v>
       </c>
       <c r="F580" t="s">
-        <v>1100</v>
+        <v>1074</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20997,10 +20895,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1101</v>
+        <v>1075</v>
       </c>
       <c r="F581" t="s">
-        <v>1102</v>
+        <v>1076</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21026,10 +20924,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
       <c r="F582" t="s">
-        <v>1104</v>
+        <v>1078</v>
       </c>
       <c r="G582" t="n">
         <v>2</v>
@@ -21055,10 +20953,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
       <c r="F583" t="s">
-        <v>1106</v>
+        <v>1080</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21084,10 +20982,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1107</v>
+        <v>1081</v>
       </c>
       <c r="F584" t="s">
-        <v>1108</v>
+        <v>1082</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21113,10 +21011,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1109</v>
+        <v>1083</v>
       </c>
       <c r="F585" t="s">
-        <v>1110</v>
+        <v>1084</v>
       </c>
       <c r="G585" t="n">
         <v>2</v>
@@ -21142,10 +21040,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1111</v>
+        <v>1085</v>
       </c>
       <c r="F586" t="s">
-        <v>1112</v>
+        <v>1086</v>
       </c>
       <c r="G586" t="n">
         <v>2</v>
@@ -21171,10 +21069,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1113</v>
+        <v>1087</v>
       </c>
       <c r="F587" t="s">
-        <v>1114</v>
+        <v>1088</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21200,10 +21098,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1115</v>
+        <v>1089</v>
       </c>
       <c r="F588" t="s">
-        <v>1116</v>
+        <v>1090</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21229,10 +21127,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1117</v>
+        <v>1091</v>
       </c>
       <c r="F589" t="s">
-        <v>1118</v>
+        <v>1092</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21258,10 +21156,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1119</v>
+        <v>1093</v>
       </c>
       <c r="F590" t="s">
-        <v>1120</v>
+        <v>1094</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21287,10 +21185,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1121</v>
+        <v>1095</v>
       </c>
       <c r="F591" t="s">
-        <v>1122</v>
+        <v>1096</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21316,10 +21214,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1123</v>
+        <v>1097</v>
       </c>
       <c r="F592" t="s">
-        <v>1124</v>
+        <v>1098</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21345,10 +21243,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1125</v>
+        <v>1099</v>
       </c>
       <c r="F593" t="s">
-        <v>1126</v>
+        <v>1100</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21374,10 +21272,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1127</v>
+        <v>1101</v>
       </c>
       <c r="F594" t="s">
-        <v>1128</v>
+        <v>1102</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21403,10 +21301,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1129</v>
+        <v>1103</v>
       </c>
       <c r="F595" t="s">
-        <v>1130</v>
+        <v>1104</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21432,10 +21330,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1131</v>
+        <v>1105</v>
       </c>
       <c r="F596" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
       <c r="G596" t="n">
         <v>2</v>
@@ -21461,10 +21359,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1133</v>
+        <v>1107</v>
       </c>
       <c r="F597" t="s">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21490,10 +21388,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1135</v>
+        <v>1109</v>
       </c>
       <c r="F598" t="s">
-        <v>1136</v>
+        <v>1110</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21519,10 +21417,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1137</v>
+        <v>1111</v>
       </c>
       <c r="F599" t="s">
-        <v>1138</v>
+        <v>1112</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21548,10 +21446,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1139</v>
+        <v>1113</v>
       </c>
       <c r="F600" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21577,10 +21475,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1141</v>
+        <v>1115</v>
       </c>
       <c r="F601" t="s">
-        <v>1142</v>
+        <v>870</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21606,10 +21504,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1143</v>
+        <v>1116</v>
       </c>
       <c r="F602" t="s">
-        <v>1144</v>
+        <v>1117</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21635,10 +21533,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1145</v>
+        <v>1118</v>
       </c>
       <c r="F603" t="s">
-        <v>1146</v>
+        <v>1119</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21664,10 +21562,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1147</v>
+        <v>1120</v>
       </c>
       <c r="F604" t="s">
-        <v>1148</v>
+        <v>1121</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21693,10 +21591,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1149</v>
+        <v>1122</v>
       </c>
       <c r="F605" t="s">
-        <v>1150</v>
+        <v>952</v>
       </c>
       <c r="G605" t="n">
         <v>2</v>
@@ -21722,10 +21620,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1151</v>
+        <v>1123</v>
       </c>
       <c r="F606" t="s">
-        <v>1152</v>
+        <v>1124</v>
       </c>
       <c r="G606" t="n">
         <v>2</v>
@@ -21751,10 +21649,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1153</v>
+        <v>1125</v>
       </c>
       <c r="F607" t="s">
-        <v>1154</v>
+        <v>1126</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21780,10 +21678,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1155</v>
+        <v>1127</v>
       </c>
       <c r="F608" t="s">
-        <v>1156</v>
+        <v>1128</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21809,10 +21707,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1157</v>
+        <v>1129</v>
       </c>
       <c r="F609" t="s">
-        <v>1158</v>
+        <v>1130</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21838,10 +21736,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="F610" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21867,10 +21765,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1159</v>
+        <v>1131</v>
       </c>
       <c r="F611" t="s">
-        <v>1160</v>
+        <v>1132</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21896,10 +21794,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1161</v>
+        <v>1133</v>
       </c>
       <c r="F612" t="s">
-        <v>1162</v>
+        <v>1134</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21925,10 +21823,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F613" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21954,10 +21852,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1163</v>
+        <v>1135</v>
       </c>
       <c r="F614" t="s">
-        <v>1164</v>
+        <v>960</v>
       </c>
       <c r="G614" t="n">
         <v>2</v>
@@ -21983,10 +21881,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1165</v>
+        <v>1136</v>
       </c>
       <c r="F615" t="s">
-        <v>1166</v>
+        <v>1137</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22012,10 +21910,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1167</v>
+        <v>1138</v>
       </c>
       <c r="F616" t="s">
-        <v>1168</v>
+        <v>1139</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22041,10 +21939,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1169</v>
+        <v>1140</v>
       </c>
       <c r="F617" t="s">
-        <v>1170</v>
+        <v>1141</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22070,10 +21968,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1171</v>
+        <v>1142</v>
       </c>
       <c r="F618" t="s">
-        <v>1172</v>
+        <v>1143</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22099,10 +21997,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F619" t="s">
-        <v>588</v>
+        <v>315</v>
       </c>
       <c r="G619" t="n">
         <v>8</v>
@@ -22128,10 +22026,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
       <c r="F620" t="s">
-        <v>1174</v>
+        <v>1145</v>
       </c>
       <c r="G620" t="n">
         <v>2</v>
@@ -22157,10 +22055,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1175</v>
+        <v>1146</v>
       </c>
       <c r="F621" t="s">
-        <v>1176</v>
+        <v>1147</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22186,10 +22084,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1177</v>
+        <v>1148</v>
       </c>
       <c r="F622" t="s">
-        <v>1178</v>
+        <v>1149</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22215,10 +22113,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1179</v>
+        <v>1150</v>
       </c>
       <c r="F623" t="s">
-        <v>1180</v>
+        <v>1151</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22244,10 +22142,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1181</v>
+        <v>1152</v>
       </c>
       <c r="F624" t="s">
-        <v>1182</v>
+        <v>1153</v>
       </c>
       <c r="G624" t="n">
         <v>2</v>
@@ -22273,10 +22171,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1183</v>
+        <v>1154</v>
       </c>
       <c r="F625" t="s">
-        <v>1184</v>
+        <v>1155</v>
       </c>
       <c r="G625" t="n">
         <v>2</v>
@@ -22302,10 +22200,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1185</v>
+        <v>1156</v>
       </c>
       <c r="F626" t="s">
-        <v>1186</v>
+        <v>1157</v>
       </c>
       <c r="G626" t="n">
         <v>2</v>
@@ -22331,10 +22229,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1187</v>
+        <v>1158</v>
       </c>
       <c r="F627" t="s">
-        <v>1188</v>
+        <v>1159</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22360,10 +22258,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1189</v>
+        <v>1160</v>
       </c>
       <c r="F628" t="s">
-        <v>1190</v>
+        <v>1161</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22389,10 +22287,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1191</v>
+        <v>1162</v>
       </c>
       <c r="F629" t="s">
-        <v>1192</v>
+        <v>307</v>
       </c>
       <c r="G629" t="n">
         <v>2</v>
@@ -22418,10 +22316,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1193</v>
+        <v>1163</v>
       </c>
       <c r="F630" t="s">
-        <v>1194</v>
+        <v>1164</v>
       </c>
       <c r="G630" t="n">
         <v>3</v>
@@ -22447,10 +22345,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1195</v>
+        <v>1165</v>
       </c>
       <c r="F631" t="s">
-        <v>1196</v>
+        <v>1166</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22476,10 +22374,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1197</v>
+        <v>1167</v>
       </c>
       <c r="F632" t="s">
-        <v>1198</v>
+        <v>767</v>
       </c>
       <c r="G632" t="n">
         <v>2</v>
@@ -22505,10 +22403,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1199</v>
+        <v>1168</v>
       </c>
       <c r="F633" t="s">
-        <v>1200</v>
+        <v>1169</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22534,10 +22432,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="F634" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22563,10 +22461,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1201</v>
+        <v>1170</v>
       </c>
       <c r="F635" t="s">
-        <v>1202</v>
+        <v>914</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22592,10 +22490,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1203</v>
+        <v>1171</v>
       </c>
       <c r="F636" t="s">
-        <v>1204</v>
+        <v>1172</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22621,10 +22519,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="F637" t="s">
-        <v>1096</v>
+        <v>934</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22650,10 +22548,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="F638" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22679,10 +22577,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1205</v>
+        <v>1173</v>
       </c>
       <c r="F639" t="s">
-        <v>1206</v>
+        <v>787</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22708,10 +22606,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1207</v>
+        <v>1174</v>
       </c>
       <c r="F640" t="s">
-        <v>1208</v>
+        <v>1175</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22737,10 +22635,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1209</v>
+        <v>1176</v>
       </c>
       <c r="F641" t="s">
-        <v>1210</v>
+        <v>1177</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22766,10 +22664,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1211</v>
+        <v>1178</v>
       </c>
       <c r="F642" t="s">
-        <v>1212</v>
+        <v>1179</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22795,10 +22693,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1213</v>
+        <v>1180</v>
       </c>
       <c r="F643" t="s">
-        <v>1214</v>
+        <v>777</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22824,10 +22722,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1215</v>
+        <v>1181</v>
       </c>
       <c r="F644" t="s">
-        <v>1216</v>
+        <v>1182</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22853,10 +22751,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1217</v>
+        <v>1183</v>
       </c>
       <c r="F645" t="s">
-        <v>1218</v>
+        <v>1184</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22882,10 +22780,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1219</v>
+        <v>1185</v>
       </c>
       <c r="F646" t="s">
-        <v>1220</v>
+        <v>1186</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22911,10 +22809,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1145</v>
+        <v>1118</v>
       </c>
       <c r="F647" t="s">
-        <v>1146</v>
+        <v>1119</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22940,10 +22838,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1221</v>
+        <v>1187</v>
       </c>
       <c r="F648" t="s">
-        <v>1222</v>
+        <v>1188</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22969,10 +22867,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1223</v>
+        <v>1189</v>
       </c>
       <c r="F649" t="s">
-        <v>1224</v>
+        <v>1190</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22998,10 +22896,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1225</v>
+        <v>1191</v>
       </c>
       <c r="F650" t="s">
-        <v>1226</v>
+        <v>1192</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23027,10 +22925,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1171</v>
+        <v>1142</v>
       </c>
       <c r="F651" t="s">
-        <v>1172</v>
+        <v>1143</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23056,10 +22954,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F652" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23085,10 +22983,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1227</v>
+        <v>1193</v>
       </c>
       <c r="F653" t="s">
-        <v>1228</v>
+        <v>1194</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23114,10 +23012,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1229</v>
+        <v>1195</v>
       </c>
       <c r="F654" t="s">
-        <v>1230</v>
+        <v>1196</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23143,10 +23041,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1177</v>
+        <v>1148</v>
       </c>
       <c r="F655" t="s">
-        <v>1178</v>
+        <v>1149</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23172,10 +23070,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1231</v>
+        <v>1197</v>
       </c>
       <c r="F656" t="s">
-        <v>1232</v>
+        <v>1198</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23201,10 +23099,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1233</v>
+        <v>1199</v>
       </c>
       <c r="F657" t="s">
-        <v>1234</v>
+        <v>1200</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23230,10 +23128,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1235</v>
+        <v>1201</v>
       </c>
       <c r="F658" t="s">
-        <v>1236</v>
+        <v>1202</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23259,10 +23157,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1237</v>
+        <v>1203</v>
       </c>
       <c r="F659" t="s">
-        <v>1238</v>
+        <v>1204</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23288,10 +23186,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1239</v>
+        <v>1205</v>
       </c>
       <c r="F660" t="s">
-        <v>1240</v>
+        <v>1206</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23317,10 +23215,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1241</v>
+        <v>1207</v>
       </c>
       <c r="F661" t="s">
-        <v>1242</v>
+        <v>1208</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23346,10 +23244,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1243</v>
+        <v>1209</v>
       </c>
       <c r="F662" t="s">
-        <v>1244</v>
+        <v>1210</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23375,10 +23273,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1245</v>
+        <v>1211</v>
       </c>
       <c r="F663" t="s">
-        <v>1246</v>
+        <v>1212</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23404,10 +23302,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1247</v>
+        <v>1213</v>
       </c>
       <c r="F664" t="s">
-        <v>1248</v>
+        <v>1214</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23433,10 +23331,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1249</v>
+        <v>1215</v>
       </c>
       <c r="F665" t="s">
-        <v>1250</v>
+        <v>1216</v>
       </c>
       <c r="G665" t="n">
         <v>3</v>
@@ -23462,10 +23360,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1251</v>
+        <v>1217</v>
       </c>
       <c r="F666" t="s">
-        <v>1252</v>
+        <v>1218</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23491,10 +23389,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1253</v>
+        <v>1219</v>
       </c>
       <c r="F667" t="s">
-        <v>1254</v>
+        <v>1220</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23520,10 +23418,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1255</v>
+        <v>1221</v>
       </c>
       <c r="F668" t="s">
-        <v>1256</v>
+        <v>1222</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23549,10 +23447,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1257</v>
+        <v>1223</v>
       </c>
       <c r="F669" t="s">
-        <v>1258</v>
+        <v>1224</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23578,10 +23476,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1259</v>
+        <v>1225</v>
       </c>
       <c r="F670" t="s">
-        <v>1260</v>
+        <v>1226</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23607,10 +23505,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1261</v>
+        <v>1227</v>
       </c>
       <c r="F671" t="s">
-        <v>1262</v>
+        <v>1228</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23636,10 +23534,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1263</v>
+        <v>1229</v>
       </c>
       <c r="F672" t="s">
-        <v>1264</v>
+        <v>1230</v>
       </c>
       <c r="G672" t="n">
         <v>3</v>

--- a/xlsx/柬埔寨_intext.xlsx
+++ b/xlsx/柬埔寨_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1259">
   <si>
     <t>柬埔寨</t>
   </si>
@@ -23,13 +23,427 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>柬埔寨國旗</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_伊朗_柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>柬埔寨國徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家格言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>國歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>柬埔寨國歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>國家面積列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%82%8A</t>
+  </si>
+  <si>
+    <t>金邊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>中央政府所在地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
+  </si>
+  <si>
+    <t>一級行政區</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%9A%E5%9F%BA%E9%87%8C%E7%9C%81</t>
+  </si>
+  <si>
+    <t>蒙多基里省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%8B%89%E5%B0%94%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>奥拉尔山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%84%E5%85%AC%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>湄公河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E9%87%8C%E8%90%A8%E6%B9%96</t>
+  </si>
+  <si>
+    <t>洞里萨湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>海岸線</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
+  </si>
+  <si>
+    <t>時區</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC%2B7</t>
+  </si>
+  <si>
+    <t>UTC+7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>國家人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2013年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>官方語言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>高棉語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>官方文字</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E6%96%87</t>
   </si>
   <si>
     <t>高棉文</t>
   </si>
   <si>
-    <t>政策_政策_美國_柬埔寨</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%BA%A7%E9%83%A8%E4%BD%9B%E6%95%99</t>
+  </si>
+  <si>
+    <t>上座部佛教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
+  </si>
+  <si>
+    <t>國教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
+  </si>
+  <si>
+    <t>曆法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
+  </si>
+  <si>
+    <t>公曆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
+  </si>
+  <si>
+    <t>主要節日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BD%91%E6%B0%B4%E7%AF%80</t>
+  </si>
+  <si>
+    <t>潑水節</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%81%E6%B0%B4%E8%8A%82</t>
+  </si>
+  <si>
+    <t>送水节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%97%A5</t>
+  </si>
+  <si>
+    <t>獨立日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
+  </si>
+  <si>
+    <t>道路通行方向</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
+  </si>
+  <si>
+    <t>電</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
+  </si>
+  <si>
+    <t>電壓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>家用電源列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
+  </si>
+  <si>
+    <t>頻率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>國家憲法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
+  </si>
+  <si>
+    <t>單一制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>政權</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主立憲制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>政治體制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>法律體系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>大陆法系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>國家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9B%BD%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>柬埔寨国王</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%BE%85%E6%95%A6%C2%B7%E8%A5%BF%E5%93%88%E8%8E%AB%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>諾羅敦·西哈莫尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
+  </si>
+  <si>
+    <t>政府首腦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E9%A6%96%E7%9B%B8</t>
+  </si>
+  <si>
+    <t>柬埔寨首相</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>洪森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>國內生產總值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
+  </si>
+  <si>
+    <t>購買力平價</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>人類發展指數</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央銀行</t>
+  </si>
+  <si>
+    <t>https://zh-classical.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>zh-classical-柬埔寨國家銀行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E7%91%9E%E7%88%BE</t>
+  </si>
+  <si>
+    <t>柬埔寨瑞爾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_4217</t>
+  </si>
+  <si>
+    <t>ISO 4217</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
+  </si>
+  <si>
+    <t>吉尼系数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
+  </si>
+  <si>
+    <t>ISO 3166-1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>國際域名縮寫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/.kh</t>
+  </si>
+  <si>
+    <t>.kh</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>國際電話區號列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各國武裝部隊列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -50,420 +464,6 @@
     <t>乱码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>柬埔寨國旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>柬埔寨國徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>國歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>柬埔寨國歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家面積列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
-  </si>
-  <si>
-    <t>首都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%82%8A</t>
-  </si>
-  <si>
-    <t>金邊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>中央政府所在地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
-  </si>
-  <si>
-    <t>一級行政區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%9A%E5%9F%BA%E9%87%8C%E7%9C%81</t>
-  </si>
-  <si>
-    <t>蒙多基里省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%8B%89%E5%B0%94%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>奥拉尔山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%84%E5%85%AC%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>湄公河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E9%87%8C%E8%90%A8%E6%B9%96</t>
-  </si>
-  <si>
-    <t>洞里萨湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>海岸線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
-  </si>
-  <si>
-    <t>時區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%2B7</t>
-  </si>
-  <si>
-    <t>UTC+7</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>高棉語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>官方文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%BA%A7%E9%83%A8%E4%BD%9B%E6%95%99</t>
-  </si>
-  <si>
-    <t>上座部佛教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
-  </si>
-  <si>
-    <t>國教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
-  </si>
-  <si>
-    <t>曆法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
-  </si>
-  <si>
-    <t>公曆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
-  </si>
-  <si>
-    <t>主要節日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BD%91%E6%B0%B4%E7%AF%80</t>
-  </si>
-  <si>
-    <t>潑水節</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%81%E6%B0%B4%E8%8A%82</t>
-  </si>
-  <si>
-    <t>送水节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%97%A5</t>
-  </si>
-  <si>
-    <t>獨立日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
-  </si>
-  <si>
-    <t>道路通行方向</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
-  </si>
-  <si>
-    <t>電</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
-  </si>
-  <si>
-    <t>電壓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>家用電源列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
-  </si>
-  <si>
-    <t>頻率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>國家憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
-  </si>
-  <si>
-    <t>單一制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>政權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>政治體制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>法律體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>大陆法系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9B%BD%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>柬埔寨国王</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%BE%85%E6%95%A6%C2%B7%E8%A5%BF%E5%93%88%E8%8E%AB%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>諾羅敦·西哈莫尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
-  </si>
-  <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E9%A6%96%E7%9B%B8</t>
-  </si>
-  <si>
-    <t>柬埔寨首相</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>洪森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
-  </si>
-  <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>人類發展指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh-classical.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%9C%8B%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>zh-classical-柬埔寨國家銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E7%91%9E%E7%88%BE</t>
-  </si>
-  <si>
-    <t>柬埔寨瑞爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_4217</t>
-  </si>
-  <si>
-    <t>ISO 4217</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
-  </si>
-  <si>
-    <t>吉尼系数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
-  </si>
-  <si>
-    <t>ISO 3166-1</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>國際域名縮寫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/.kh</t>
-  </si>
-  <si>
-    <t>.kh</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國際電話區號列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各國武裝部隊列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
   </si>
   <si>
@@ -1578,24 +1578,6 @@
   </si>
   <si>
     <t>奥多棉芷省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A6%AC%E7%9C%81</t>
-  </si>
-  <si>
-    <t>白馬省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A6%AC%E5%B8%82</t>
-  </si>
-  <si>
-    <t>白馬市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>珠山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%9C%AC%E5%85%8B%E8%92%99%E7%9C%81</t>
@@ -4158,7 +4140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I672"/>
+  <dimension ref="A1:I668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4212,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -4328,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -4357,7 +4339,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -4380,10 +4362,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -4409,13 +4391,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -4438,13 +4420,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -4467,13 +4449,13 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -4531,7 +4513,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -4560,7 +4542,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -4589,7 +4571,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -4618,7 +4600,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -4676,7 +4658,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -4705,7 +4687,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -4734,7 +4716,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -4763,7 +4745,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -4792,7 +4774,7 @@
         <v>42</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -4821,7 +4803,7 @@
         <v>44</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -4844,10 +4826,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -4873,10 +4855,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -4902,13 +4884,13 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G26" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -4931,13 +4913,13 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -4966,7 +4948,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -4989,10 +4971,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -5024,7 +5006,7 @@
         <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -5053,7 +5035,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -5082,7 +5064,7 @@
         <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -5111,7 +5093,7 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -5140,7 +5122,7 @@
         <v>62</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -5198,7 +5180,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -5227,7 +5209,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -5314,7 +5296,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -5401,7 +5383,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -5749,7 +5731,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -5836,7 +5818,7 @@
         <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -5865,7 +5847,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -5894,7 +5876,7 @@
         <v>114</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -5923,7 +5905,7 @@
         <v>116</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -5952,7 +5934,7 @@
         <v>118</v>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -5981,7 +5963,7 @@
         <v>120</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -6010,7 +5992,7 @@
         <v>122</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -6039,7 +6021,7 @@
         <v>124</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -6068,7 +6050,7 @@
         <v>126</v>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -6097,7 +6079,7 @@
         <v>128</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -6178,13 +6160,13 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -6207,10 +6189,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -6236,10 +6218,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -6265,10 +6247,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -6352,10 +6334,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -6381,10 +6363,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -6410,10 +6392,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -7715,10 +7697,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -9542,10 +9524,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F186" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -10093,10 +10075,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G205" t="n">
         <v>5</v>
@@ -10737,7 +10719,7 @@
         <v>418</v>
       </c>
       <c r="G227" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -12419,7 +12401,7 @@
         <v>526</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -12442,10 +12424,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12471,10 +12453,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12500,13 +12482,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F288" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -12529,13 +12511,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F289" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G289" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -12558,10 +12540,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F290" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12587,10 +12569,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F291" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12616,13 +12598,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F292" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -12645,10 +12627,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F293" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12674,13 +12656,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F294" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -12703,13 +12685,13 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F295" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -12732,10 +12714,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F296" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12761,13 +12743,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F297" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12790,13 +12772,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F298" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G298" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12819,13 +12801,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F299" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G299" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -12848,10 +12830,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F300" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12877,13 +12859,13 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F301" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -12906,13 +12888,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F302" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12935,10 +12917,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>559</v>
+        <v>197</v>
       </c>
       <c r="F303" t="s">
-        <v>560</v>
+        <v>198</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12964,10 +12946,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F304" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12993,10 +12975,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F305" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -13022,13 +13004,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F306" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G306" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -13051,10 +13033,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>197</v>
+        <v>565</v>
       </c>
       <c r="F307" t="s">
-        <v>198</v>
+        <v>566</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -13080,10 +13062,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="F308" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -13109,13 +13091,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F309" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -13138,10 +13120,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F310" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13167,13 +13149,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F311" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -13196,13 +13178,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F312" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -13225,13 +13207,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F313" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G313" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -13254,13 +13236,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F314" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -13283,10 +13265,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F315" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -13312,13 +13294,13 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F316" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G316" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -13341,13 +13323,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F317" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G317" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -13370,10 +13352,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F318" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -13399,10 +13381,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F319" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -13428,13 +13410,13 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F320" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -13457,13 +13439,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F321" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G321" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -13486,10 +13468,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F322" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -13515,13 +13497,13 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F323" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -13544,13 +13526,13 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F324" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -13573,13 +13555,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F325" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G325" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -13602,13 +13584,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F326" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G326" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -13631,13 +13613,13 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F327" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G327" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -13660,13 +13642,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F328" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -13689,13 +13671,13 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F329" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -13718,13 +13700,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F330" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G330" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -13747,10 +13729,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F331" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13776,13 +13758,13 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F332" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G332" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -13805,10 +13787,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F333" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -13834,13 +13816,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F334" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G334" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13863,13 +13845,13 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F335" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -13892,10 +13874,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F336" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G336" t="n">
         <v>3</v>
@@ -13921,13 +13903,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F337" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13950,13 +13932,13 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F338" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G338" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -13979,13 +13961,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F339" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -14008,13 +13990,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F340" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -14037,13 +14019,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F341" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G341" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -14066,13 +14048,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F342" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -14095,10 +14077,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F343" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -14124,10 +14106,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F344" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -14153,13 +14135,13 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F345" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G345" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -14182,13 +14164,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F346" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -14211,13 +14193,13 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F347" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -14240,13 +14222,13 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F348" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -14269,10 +14251,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F349" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -14298,13 +14280,13 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F350" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -14327,13 +14309,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F351" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -14356,13 +14338,13 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F352" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -14385,10 +14367,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F353" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -14414,13 +14396,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F354" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G354" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -14443,10 +14425,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F355" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -14472,13 +14454,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F356" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -14501,13 +14483,13 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F357" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -14530,10 +14512,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F358" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -14559,10 +14541,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F359" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -14588,10 +14570,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F360" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -14617,13 +14599,13 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F361" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -14646,13 +14628,13 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F362" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -14675,13 +14657,13 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F363" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -14704,13 +14686,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F364" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G364" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -14733,13 +14715,13 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F365" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -14762,13 +14744,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F366" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -14791,13 +14773,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F367" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -14820,13 +14802,13 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F368" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G368" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -14849,10 +14831,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F369" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14878,10 +14860,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F370" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14907,13 +14889,13 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F371" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -14936,10 +14918,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F372" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14965,13 +14947,13 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F373" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G373" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -14994,13 +14976,13 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F374" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -15023,10 +15005,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F375" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -15052,10 +15034,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F376" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -15081,13 +15063,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F377" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -15110,13 +15092,13 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F378" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -15139,10 +15121,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F379" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15168,10 +15150,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F380" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15197,10 +15179,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F381" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -15226,13 +15208,13 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F382" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -15255,10 +15237,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F383" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15284,13 +15266,13 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F384" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -15313,13 +15295,13 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F385" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -15342,10 +15324,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F386" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15371,10 +15353,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F387" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15400,10 +15382,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F388" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -15429,10 +15411,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F389" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15458,13 +15440,13 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F390" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G390" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -15487,10 +15469,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F391" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15516,10 +15498,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F392" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -15545,10 +15527,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F393" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15574,13 +15556,13 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F394" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G394" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -15603,10 +15585,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F395" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15632,13 +15614,13 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F396" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -15661,10 +15643,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F397" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15690,10 +15672,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F398" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15719,13 +15701,13 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F399" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -15841,7 +15823,7 @@
         <v>756</v>
       </c>
       <c r="G403" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -15864,10 +15846,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F404" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15893,10 +15875,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F405" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15922,10 +15904,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F406" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15951,13 +15933,13 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F407" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G407" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -15980,10 +15962,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F408" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -16009,10 +15991,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F409" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -16038,10 +16020,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F410" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -16067,13 +16049,13 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F411" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -16096,10 +16078,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F412" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16125,10 +16107,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F413" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16154,10 +16136,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F414" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16183,13 +16165,13 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F415" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -16212,13 +16194,13 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F416" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -16241,13 +16223,13 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F417" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -16270,13 +16252,13 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F418" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -16299,10 +16281,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F419" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16328,13 +16310,13 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F420" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -16357,10 +16339,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F421" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -16386,13 +16368,13 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F422" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -16415,10 +16397,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F423" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16444,13 +16426,13 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F424" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -16473,13 +16455,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F425" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -16502,10 +16484,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F426" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16531,10 +16513,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F427" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16560,13 +16542,13 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F428" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -16589,13 +16571,13 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F429" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -16618,13 +16600,13 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F430" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -16647,13 +16629,13 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F431" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -16676,13 +16658,13 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F432" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -16705,10 +16687,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F433" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16734,13 +16716,13 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F434" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -16763,13 +16745,13 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F435" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -16792,13 +16774,13 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F436" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -16821,10 +16803,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F437" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -16850,10 +16832,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F438" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16879,10 +16861,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F439" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16908,10 +16890,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>827</v>
+        <v>749</v>
       </c>
       <c r="F440" t="s">
-        <v>828</v>
+        <v>750</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16943,7 +16925,7 @@
         <v>830</v>
       </c>
       <c r="G441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -16972,7 +16954,7 @@
         <v>832</v>
       </c>
       <c r="G442" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -17024,10 +17006,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>755</v>
+        <v>835</v>
       </c>
       <c r="F444" t="s">
-        <v>756</v>
+        <v>836</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17053,13 +17035,13 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F445" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -17082,13 +17064,13 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F446" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -17111,10 +17093,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F447" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17140,10 +17122,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F448" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17169,13 +17151,13 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F449" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -17198,10 +17180,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="F450" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17227,10 +17209,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F451" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17256,13 +17238,13 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F452" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -17285,10 +17267,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F453" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17314,10 +17296,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F454" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17343,10 +17325,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F455" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17372,13 +17354,13 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F456" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G456" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -17401,10 +17383,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F457" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17430,10 +17412,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>861</v>
+        <v>833</v>
       </c>
       <c r="F458" t="s">
-        <v>862</v>
+        <v>834</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17494,7 +17476,7 @@
         <v>866</v>
       </c>
       <c r="G460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -17523,7 +17505,7 @@
         <v>868</v>
       </c>
       <c r="G461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -17546,13 +17528,13 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="F462" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="G462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -17575,13 +17557,13 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F463" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G463" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -17604,13 +17586,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F464" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -17633,10 +17615,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="F465" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17662,10 +17644,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F466" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -17691,10 +17673,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F467" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -17720,13 +17702,13 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F468" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G468" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H468" t="s">
         <v>4</v>
@@ -17749,13 +17731,13 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F469" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -17778,10 +17760,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F470" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -17807,13 +17789,13 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F471" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G471" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -17836,13 +17818,13 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F472" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G472" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17865,10 +17847,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F473" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17894,13 +17876,13 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F474" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -17923,10 +17905,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F475" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17952,13 +17934,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F476" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G476" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -17981,10 +17963,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F477" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -18010,13 +17992,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F478" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -18039,13 +18021,13 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F479" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G479" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -18068,10 +18050,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F480" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G480" t="n">
         <v>3</v>
@@ -18097,13 +18079,13 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F481" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -18126,13 +18108,13 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F482" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -18155,10 +18137,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F483" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G483" t="n">
         <v>3</v>
@@ -18184,13 +18166,13 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F484" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G484" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -18213,13 +18195,13 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F485" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H485" t="s">
         <v>4</v>
@@ -18242,10 +18224,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F486" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -18271,10 +18253,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F487" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G487" t="n">
         <v>3</v>
@@ -18300,13 +18282,13 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F488" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G488" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -18329,13 +18311,13 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F489" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="G489" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -18358,10 +18340,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F490" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -18387,13 +18369,13 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F491" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -18416,13 +18398,13 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F492" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G492" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -18445,13 +18427,13 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F493" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -18474,10 +18456,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F494" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -18503,13 +18485,13 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F495" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G495" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H495" t="s">
         <v>4</v>
@@ -18532,13 +18514,13 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F496" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G496" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -18561,10 +18543,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F497" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18590,13 +18572,13 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F498" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G498" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -18619,10 +18601,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="F499" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G499" t="n">
         <v>3</v>
@@ -18648,13 +18630,13 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F500" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G500" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -18677,13 +18659,13 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F501" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G501" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -18706,13 +18688,13 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F502" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="G502" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -18735,13 +18717,13 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F503" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -18764,13 +18746,13 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F504" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="G504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -18793,10 +18775,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F505" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G505" t="n">
         <v>3</v>
@@ -18822,10 +18804,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F506" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18851,13 +18833,13 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F507" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="G507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -18880,13 +18862,13 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F508" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18909,13 +18891,13 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F509" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -18938,13 +18920,13 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F510" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G510" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -18967,13 +18949,13 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F511" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -18996,10 +18978,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F512" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19025,10 +19007,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F513" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G513" t="n">
         <v>2</v>
@@ -19054,13 +19036,13 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F514" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="G514" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -19083,10 +19065,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F515" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19112,10 +19094,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F516" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19141,13 +19123,13 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F517" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -19170,10 +19152,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F518" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19199,13 +19181,13 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F519" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="G519" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -19228,10 +19210,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F520" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19257,10 +19239,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F521" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19286,10 +19268,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F522" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19315,13 +19297,13 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="F523" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G523" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H523" t="s">
         <v>4</v>
@@ -19344,10 +19326,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F524" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19373,10 +19355,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F525" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19402,10 +19384,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="F526" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19431,10 +19413,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F527" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19460,10 +19442,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="F528" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19489,10 +19471,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F529" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19518,10 +19500,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F530" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19547,13 +19529,13 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F531" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H531" t="s">
         <v>4</v>
@@ -19576,10 +19558,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F532" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19605,10 +19587,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="F533" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19634,10 +19616,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F534" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19663,13 +19645,13 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F535" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="G535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -19692,13 +19674,13 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F536" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -19721,10 +19703,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F537" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19750,10 +19732,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F538" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19779,10 +19761,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="F539" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19808,13 +19790,13 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1023</v>
+        <v>987</v>
       </c>
       <c r="F540" t="s">
-        <v>1024</v>
+        <v>988</v>
       </c>
       <c r="G540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
@@ -19924,10 +19906,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>993</v>
+        <v>155</v>
       </c>
       <c r="F544" t="s">
-        <v>994</v>
+        <v>156</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19959,7 +19941,7 @@
         <v>1032</v>
       </c>
       <c r="G545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -20017,7 +19999,7 @@
         <v>1036</v>
       </c>
       <c r="G547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -20040,10 +20022,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>155</v>
+        <v>1037</v>
       </c>
       <c r="F548" t="s">
-        <v>156</v>
+        <v>1038</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -20069,13 +20051,13 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="F549" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="G549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H549" t="s">
         <v>4</v>
@@ -20098,10 +20080,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F550" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20127,13 +20109,13 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="F551" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="G551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H551" t="s">
         <v>4</v>
@@ -20156,13 +20138,13 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F552" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="G552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H552" t="s">
         <v>4</v>
@@ -20185,10 +20167,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="F553" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20214,10 +20196,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F554" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20243,10 +20225,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="F555" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20272,13 +20254,13 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="F556" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="G556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H556" t="s">
         <v>4</v>
@@ -20301,10 +20283,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="F557" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20330,10 +20312,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="F558" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20359,10 +20341,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="F559" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20388,10 +20370,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="F560" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20417,10 +20399,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="F561" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20446,10 +20428,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="F562" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20475,10 +20457,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="F563" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20504,10 +20486,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="F564" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20533,10 +20515,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="F565" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20562,10 +20544,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F566" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20591,10 +20573,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F567" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20620,10 +20602,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F568" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20649,13 +20631,13 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F569" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G569" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H569" t="s">
         <v>4</v>
@@ -20678,13 +20660,13 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F570" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H570" t="s">
         <v>4</v>
@@ -20707,10 +20689,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F571" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20736,13 +20718,13 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F572" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G572" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H572" t="s">
         <v>4</v>
@@ -20765,13 +20747,13 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F573" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H573" t="s">
         <v>4</v>
@@ -20794,13 +20776,13 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F574" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G574" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H574" t="s">
         <v>4</v>
@@ -20823,13 +20805,13 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F575" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H575" t="s">
         <v>4</v>
@@ -20852,13 +20834,13 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F576" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="G576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -20881,10 +20863,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F577" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20910,13 +20892,13 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F578" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G578" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H578" t="s">
         <v>4</v>
@@ -20939,13 +20921,13 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F579" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H579" t="s">
         <v>4</v>
@@ -20968,10 +20950,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F580" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20997,13 +20979,13 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F581" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="G581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H581" t="s">
         <v>4</v>
@@ -21026,10 +21008,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F582" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="G582" t="n">
         <v>2</v>
@@ -21055,10 +21037,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F583" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -21084,10 +21066,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F584" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21113,13 +21095,13 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F585" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="G585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H585" t="s">
         <v>4</v>
@@ -21142,13 +21124,13 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F586" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="G586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H586" t="s">
         <v>4</v>
@@ -21171,10 +21153,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="F587" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21200,10 +21182,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F588" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21229,10 +21211,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="F589" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21258,10 +21240,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="F590" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21287,10 +21269,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F591" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21316,13 +21298,13 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F592" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H592" t="s">
         <v>4</v>
@@ -21345,10 +21327,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F593" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21374,10 +21356,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F594" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21403,10 +21385,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F595" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21432,13 +21414,13 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F596" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H596" t="s">
         <v>4</v>
@@ -21461,10 +21443,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="F597" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21490,10 +21472,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F598" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21519,10 +21501,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="F599" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21548,10 +21530,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="F600" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21577,13 +21559,13 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F601" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H601" t="s">
         <v>4</v>
@@ -21606,13 +21588,13 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="F602" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H602" t="s">
         <v>4</v>
@@ -21635,10 +21617,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F603" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21664,10 +21646,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="F604" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21693,13 +21675,13 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F605" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H605" t="s">
         <v>4</v>
@@ -21722,13 +21704,13 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1151</v>
+        <v>665</v>
       </c>
       <c r="F606" t="s">
-        <v>1152</v>
+        <v>666</v>
       </c>
       <c r="G606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -21809,10 +21791,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1157</v>
+        <v>637</v>
       </c>
       <c r="F609" t="s">
-        <v>1158</v>
+        <v>638</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21838,13 +21820,13 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>671</v>
+        <v>1157</v>
       </c>
       <c r="F610" t="s">
-        <v>672</v>
+        <v>1158</v>
       </c>
       <c r="G610" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H610" t="s">
         <v>4</v>
@@ -21925,10 +21907,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>643</v>
+        <v>1163</v>
       </c>
       <c r="F613" t="s">
-        <v>644</v>
+        <v>1164</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21954,13 +21936,13 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="F614" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="G614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H614" t="s">
         <v>4</v>
@@ -21983,13 +21965,13 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1165</v>
+        <v>581</v>
       </c>
       <c r="F615" t="s">
-        <v>1166</v>
+        <v>582</v>
       </c>
       <c r="G615" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H615" t="s">
         <v>4</v>
@@ -22018,7 +22000,7 @@
         <v>1168</v>
       </c>
       <c r="G616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H616" t="s">
         <v>4</v>
@@ -22099,13 +22081,13 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>587</v>
+        <v>1173</v>
       </c>
       <c r="F619" t="s">
-        <v>588</v>
+        <v>1174</v>
       </c>
       <c r="G619" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H619" t="s">
         <v>4</v>
@@ -22128,10 +22110,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="F620" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="G620" t="n">
         <v>2</v>
@@ -22157,13 +22139,13 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="F621" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="G621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H621" t="s">
         <v>4</v>
@@ -22186,13 +22168,13 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F622" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="G622" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H622" t="s">
         <v>4</v>
@@ -22215,10 +22197,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F623" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22244,13 +22226,13 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F624" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H624" t="s">
         <v>4</v>
@@ -22273,10 +22255,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F625" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="G625" t="n">
         <v>2</v>
@@ -22302,13 +22284,13 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="F626" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="G626" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H626" t="s">
         <v>4</v>
@@ -22331,10 +22313,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F627" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22360,13 +22342,13 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="F628" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="G628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -22389,13 +22371,13 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F629" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="G629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -22418,13 +22400,13 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1193</v>
+        <v>909</v>
       </c>
       <c r="F630" t="s">
-        <v>1194</v>
+        <v>910</v>
       </c>
       <c r="G630" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H630" t="s">
         <v>4</v>
@@ -22482,7 +22464,7 @@
         <v>1198</v>
       </c>
       <c r="G632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -22505,10 +22487,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1199</v>
+        <v>1089</v>
       </c>
       <c r="F633" t="s">
-        <v>1200</v>
+        <v>1090</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22534,10 +22516,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>915</v>
+        <v>1083</v>
       </c>
       <c r="F634" t="s">
-        <v>916</v>
+        <v>1084</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22563,10 +22545,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F635" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22592,10 +22574,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F636" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22621,10 +22603,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1095</v>
+        <v>1203</v>
       </c>
       <c r="F637" t="s">
-        <v>1096</v>
+        <v>1204</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22650,10 +22632,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1089</v>
+        <v>1205</v>
       </c>
       <c r="F638" t="s">
-        <v>1090</v>
+        <v>1206</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22679,10 +22661,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F639" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22708,10 +22690,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F640" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22737,10 +22719,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F641" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22766,10 +22748,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F642" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22795,10 +22777,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1213</v>
+        <v>1139</v>
       </c>
       <c r="F643" t="s">
-        <v>1214</v>
+        <v>1140</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22911,10 +22893,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1145</v>
+        <v>1165</v>
       </c>
       <c r="F647" t="s">
-        <v>1146</v>
+        <v>1166</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22940,10 +22922,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1221</v>
+        <v>585</v>
       </c>
       <c r="F648" t="s">
-        <v>1222</v>
+        <v>586</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22969,10 +22951,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F649" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22998,10 +22980,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F650" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23056,10 +23038,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>591</v>
+        <v>1225</v>
       </c>
       <c r="F652" t="s">
-        <v>592</v>
+        <v>1226</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23143,10 +23125,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1177</v>
+        <v>1231</v>
       </c>
       <c r="F655" t="s">
-        <v>1178</v>
+        <v>1232</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23172,10 +23154,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F656" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23201,10 +23183,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F657" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23230,10 +23212,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F658" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23259,10 +23241,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F659" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23288,10 +23270,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="F660" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23317,13 +23299,13 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="F661" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="G661" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H661" t="s">
         <v>4</v>
@@ -23346,10 +23328,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="F662" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23375,10 +23357,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="F663" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23404,10 +23386,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="F664" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23433,13 +23415,13 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F665" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="G665" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H665" t="s">
         <v>4</v>
@@ -23462,10 +23444,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="F666" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23491,10 +23473,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="F667" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23520,134 +23502,18 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F668" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="G668" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
       </c>
       <c r="I668" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="669" spans="1:9">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="s">
-        <v>0</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1</v>
-      </c>
-      <c r="D669" t="n">
-        <v>668</v>
-      </c>
-      <c r="E669" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F669" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G669" t="n">
-        <v>1</v>
-      </c>
-      <c r="H669" t="s">
-        <v>4</v>
-      </c>
-      <c r="I669" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="670" spans="1:9">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="s">
-        <v>0</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1</v>
-      </c>
-      <c r="D670" t="n">
-        <v>669</v>
-      </c>
-      <c r="E670" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F670" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G670" t="n">
-        <v>1</v>
-      </c>
-      <c r="H670" t="s">
-        <v>4</v>
-      </c>
-      <c r="I670" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="671" spans="1:9">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1</v>
-      </c>
-      <c r="D671" t="n">
-        <v>670</v>
-      </c>
-      <c r="E671" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F671" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G671" t="n">
-        <v>1</v>
-      </c>
-      <c r="H671" t="s">
-        <v>4</v>
-      </c>
-      <c r="I671" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="672" spans="1:9">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="s">
-        <v>0</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1</v>
-      </c>
-      <c r="D672" t="n">
-        <v>671</v>
-      </c>
-      <c r="E672" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F672" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G672" t="n">
-        <v>3</v>
-      </c>
-      <c r="H672" t="s">
-        <v>4</v>
-      </c>
-      <c r="I672" t="n">
         <v>3</v>
       </c>
     </row>
